--- a/src/test/resources/testCases/TestCases.xlsx
+++ b/src/test/resources/testCases/TestCases.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCare_CaptureMemberData\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA44BE5-CA86-41B9-A261-1EDE734037FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA716F-4ED7-46E1-8FA7-F4D1C7B3B903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BT" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>Test Steps ID</t>
   </si>
@@ -124,9 +123,6 @@
     <t>//select[@id='ddlAssignedStatus']</t>
   </si>
   <si>
-    <t>Select UnAssigned</t>
-  </si>
-  <si>
     <t>//*[@id="ddlAssignedStatus"]/option[3]</t>
   </si>
   <si>
@@ -139,9 +135,6 @@
     <t>//input[@id='txtHierarchyLevelSearchValue']</t>
   </si>
   <si>
-    <t>Type MLTC On Eligibility Level Value</t>
-  </si>
-  <si>
     <t>MLTC</t>
   </si>
   <si>
@@ -202,12 +195,6 @@
     <t>Click on Member ID</t>
   </si>
   <si>
-    <t>//tr[1]/td[3]/a</t>
-  </si>
-  <si>
-    <t>Verify the Primary Language is English</t>
-  </si>
-  <si>
     <t>Assert</t>
   </si>
   <si>
@@ -226,12 +213,6 @@
     <t>Click Checkbox</t>
   </si>
   <si>
-    <t>Alyson Roberts:Altruista Health</t>
-  </si>
-  <si>
-    <t>(//input[@type='checkbox'])[129]</t>
-  </si>
-  <si>
     <t>Checkbox</t>
   </si>
   <si>
@@ -241,23 +222,62 @@
     <t>//input[@id='ddlCareStaff']</t>
   </si>
   <si>
-    <t>//li[contains(text(),'Alyson Roberts:Altruista Health')]</t>
-  </si>
-  <si>
-    <t>Click Assign Button</t>
-  </si>
-  <si>
     <t>//input[@id='btnAssign']</t>
   </si>
   <si>
     <t>Select Alyson Roberts:Altruista Health</t>
+  </si>
+  <si>
+    <t>Verify the Primary Language is English.</t>
+  </si>
+  <si>
+    <t>//li[contains(text(),'Alyson Roberts : Altruista Health')]</t>
+  </si>
+  <si>
+    <t>Aly</t>
+  </si>
+  <si>
+    <t>(//input[@type='checkbox'])[130]</t>
+  </si>
+  <si>
+    <t>TS013</t>
+  </si>
+  <si>
+    <t>TS014</t>
+  </si>
+  <si>
+    <t>TS015</t>
+  </si>
+  <si>
+    <t>TS016</t>
+  </si>
+  <si>
+    <t>TS017</t>
+  </si>
+  <si>
+    <t>TS018</t>
+  </si>
+  <si>
+    <t>TS019</t>
+  </si>
+  <si>
+    <t>Click on Assign Button</t>
+  </si>
+  <si>
+    <t>Select Unassigned</t>
+  </si>
+  <si>
+    <t>Type MLTC on Eligibility Level Value</t>
+  </si>
+  <si>
+    <t>//*[@id="AssignCareStaffGrid"]/div[2]/table/tbody/tr[1]/td[3]/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,12 +305,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -306,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -368,23 +382,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,10 +406,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
@@ -756,16 +758,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -779,16 +781,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>25</v>
@@ -805,13 +807,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>28</v>
@@ -825,16 +827,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>29</v>
@@ -848,16 +850,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>30</v>
@@ -871,16 +873,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>31</v>
@@ -894,19 +896,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>21</v>
@@ -917,19 +919,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -940,22 +942,22 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -963,19 +965,19 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>21</v>
@@ -986,23 +988,180 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1011,216 +1170,6 @@
     <hyperlink ref="G5" r:id="rId2" tooltip="mailto:aqif_m_con@vnshealth.org" display="mailto:aqif_m_con@vnshealth.org" xr:uid="{2CBD8F2A-58CB-484A-B0F3-7780C48E5C39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B1921B-1337-4923-806A-DAE8F875D58E}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.6328125" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testCases/TestCases.xlsx
+++ b/src/test/resources/testCases/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCare_CaptureMemberData\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA716F-4ED7-46E1-8FA7-F4D1C7B3B903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF87A0C2-E9E3-43F0-A0F8-1A7B918F32AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>Test Steps ID</t>
   </si>
@@ -126,9 +126,6 @@
     <t>//*[@id="ddlAssignedStatus"]/option[3]</t>
   </si>
   <si>
-    <t>Select Enrollment Search</t>
-  </si>
-  <si>
     <t>//*[@id="divViewEnrollmentSearchHeader"]</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>MLTC</t>
   </si>
   <si>
-    <t>Select All CheckBox</t>
-  </si>
-  <si>
     <t>//input[@id='txtHierarchyLevelSearchValuechk']</t>
   </si>
   <si>
@@ -174,15 +168,6 @@
     <t>Dropdown</t>
   </si>
   <si>
-    <t>CheckBox</t>
-  </si>
-  <si>
-    <t>Click Manage Button</t>
-  </si>
-  <si>
-    <t>Click on Assigned Manager</t>
-  </si>
-  <si>
     <t>Click on Assigned Status Dropdown</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t>Click on Member ID</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>ENG</t>
   </si>
   <si>
@@ -225,21 +207,12 @@
     <t>//input[@id='btnAssign']</t>
   </si>
   <si>
-    <t>Select Alyson Roberts:Altruista Health</t>
-  </si>
-  <si>
     <t>Verify the Primary Language is English.</t>
   </si>
   <si>
-    <t>//li[contains(text(),'Alyson Roberts : Altruista Health')]</t>
-  </si>
-  <si>
     <t>Aly</t>
   </si>
   <si>
-    <t>(//input[@type='checkbox'])[130]</t>
-  </si>
-  <si>
     <t>TS013</t>
   </si>
   <si>
@@ -264,13 +237,40 @@
     <t>Click on Assign Button</t>
   </si>
   <si>
-    <t>Select Unassigned</t>
-  </si>
-  <si>
     <t>Type MLTC on Eligibility Level Value</t>
   </si>
   <si>
-    <t>//*[@id="AssignCareStaffGrid"]/div[2]/table/tbody/tr[1]/td[3]/a</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>(//ul[@id='ddlCareStaff_listbox']/li)[1]</t>
+  </si>
+  <si>
+    <t>Select Assign Care Member</t>
+  </si>
+  <si>
+    <t>Click Manage Dropdown</t>
+  </si>
+  <si>
+    <t>Select UnAssigned</t>
+  </si>
+  <si>
+    <t>Click Enrollment Search</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Check the Select All Checkbox</t>
+  </si>
+  <si>
+    <t>Capture Value</t>
+  </si>
+  <si>
+    <t>Text Value</t>
+  </si>
+  <si>
+    <t>Select "Alyson Roberts:Altruista Health"</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
@@ -758,16 +758,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -781,16 +781,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>25</v>
@@ -807,13 +807,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>28</v>
@@ -827,16 +827,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>29</v>
@@ -850,16 +850,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>30</v>
@@ -873,16 +873,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>31</v>
@@ -896,16 +896,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>32</v>
@@ -919,19 +919,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -942,22 +942,22 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -965,19 +965,19 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>21</v>
@@ -988,19 +988,19 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
@@ -1008,68 +1008,66 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>21</v>
@@ -1077,89 +1075,87 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7"/>
     </row>

--- a/src/test/resources/testCases/TestCases.xlsx
+++ b/src/test/resources/testCases/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCare_CaptureMemberData\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF87A0C2-E9E3-43F0-A0F8-1A7B918F32AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC61501-A98F-4F36-AAB8-788CC76F8752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>Test Steps ID</t>
   </si>
@@ -271,25 +271,25 @@
   </si>
   <si>
     <t>Select "Alyson Roberts:Altruista Health"</t>
+  </si>
+  <si>
+    <t>Guiding Care</t>
+  </si>
+  <si>
+    <t>Project:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -305,8 +305,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +330,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF2F75B5"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -385,30 +404,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,462 +729,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://vns-qa.guidingcare.com/portal/" xr:uid="{121C32D6-78A0-4929-88C2-6E468464FF3C}"/>
-    <hyperlink ref="G5" r:id="rId2" tooltip="mailto:aqif_m_con@vnshealth.org" display="mailto:aqif_m_con@vnshealth.org" xr:uid="{2CBD8F2A-58CB-484A-B0F3-7780C48E5C39}"/>
+    <hyperlink ref="G4" r:id="rId1" tooltip="https://vns-qa.guidingcare.com/portal/" xr:uid="{121C32D6-78A0-4929-88C2-6E468464FF3C}"/>
+    <hyperlink ref="G7" r:id="rId2" tooltip="mailto:aqif_m_con@vnshealth.org" display="mailto:aqif_m_con@vnshealth.org" xr:uid="{2CBD8F2A-58CB-484A-B0F3-7780C48E5C39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/test/resources/testCases/TestCases.xlsx
+++ b/src/test/resources/testCases/TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCare_CaptureMemberData\src\test\resources\testCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCareAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC61501-A98F-4F36-AAB8-788CC76F8752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D22412E-9F4D-4836-B537-8F998F3596CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>Test Steps ID</t>
   </si>
@@ -177,30 +177,18 @@
     <t>Click Search All</t>
   </si>
   <si>
-    <t>Click on Member ID</t>
-  </si>
-  <si>
     <t>ENG</t>
   </si>
   <si>
     <t>//div[5]//div[4]//p[1]</t>
   </si>
   <si>
-    <t>Close the Pop up</t>
-  </si>
-  <si>
     <t>//a[@id='closePopUp']</t>
   </si>
   <si>
-    <t>Click Checkbox</t>
-  </si>
-  <si>
     <t>Checkbox</t>
   </si>
   <si>
-    <t>Type in Care Staff Name</t>
-  </si>
-  <si>
     <t>//input[@id='ddlCareStaff']</t>
   </si>
   <si>
@@ -237,33 +225,18 @@
     <t>Click on Assign Button</t>
   </si>
   <si>
-    <t>Type MLTC on Eligibility Level Value</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
     <t>(//ul[@id='ddlCareStaff_listbox']/li)[1]</t>
   </si>
   <si>
-    <t>Select Assign Care Member</t>
-  </si>
-  <si>
     <t>Click Manage Dropdown</t>
   </si>
   <si>
-    <t>Select UnAssigned</t>
-  </si>
-  <si>
-    <t>Click Enrollment Search</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
-    <t>Check the Select All Checkbox</t>
-  </si>
-  <si>
     <t>Capture Value</t>
   </si>
   <si>
@@ -277,6 +250,84 @@
   </si>
   <si>
     <t>Project:</t>
+  </si>
+  <si>
+    <t>..:: Altruista Health ::..</t>
+  </si>
+  <si>
+    <t>//span[@id='lblLoginName']</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>//div[@id='divViewMemberSearchHeader']</t>
+  </si>
+  <si>
+    <t>Search Criteria</t>
+  </si>
+  <si>
+    <t>//span[@class='k-pager-info k-label']</t>
+  </si>
+  <si>
+    <t>Syed</t>
+  </si>
+  <si>
+    <t>TS006A</t>
+  </si>
+  <si>
+    <t>TS012A</t>
+  </si>
+  <si>
+    <t>TS004A</t>
+  </si>
+  <si>
+    <t>Capture Total Member Number</t>
+  </si>
+  <si>
+    <t>Verify Search Criteria Header is Displayed</t>
+  </si>
+  <si>
+    <t>Parametierized Xpath</t>
+  </si>
+  <si>
+    <t>Check the Select All checkbox</t>
+  </si>
+  <si>
+    <t>Click Enrollment Search Header</t>
+  </si>
+  <si>
+    <t>Verify Username Displayed is Syed</t>
+  </si>
+  <si>
+    <t>TS004B</t>
+  </si>
+  <si>
+    <t>Verify Page Title</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Select Assign Care Member Button</t>
+  </si>
+  <si>
+    <t>Select UnAssigned Option</t>
+  </si>
+  <si>
+    <t>Type "MLTC" on Eligibility Level Value</t>
+  </si>
+  <si>
+    <t>Click on Member ID Value</t>
+  </si>
+  <si>
+    <t>Close the View Summary Popup</t>
+  </si>
+  <si>
+    <t>Enter Care Staff Name</t>
+  </si>
+  <si>
+    <t>Select Member to Assign</t>
   </si>
 </sst>
 </file>
@@ -339,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -401,12 +452,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -430,6 +501,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -711,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,10 +813,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -829,7 +912,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -847,65 +930,65 @@
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -914,21 +997,21 @@
         <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
@@ -937,67 +1020,67 @@
         <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="A12" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>45</v>
@@ -1006,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
@@ -1014,13 +1097,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
@@ -1029,7 +1112,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -1037,144 +1120,148 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>42</v>
@@ -1185,10 +1272,102 @@
       <c r="E22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>59</v>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1196,9 +1375,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" tooltip="https://vns-qa.guidingcare.com/portal/" xr:uid="{121C32D6-78A0-4929-88C2-6E468464FF3C}"/>
-    <hyperlink ref="G7" r:id="rId2" tooltip="mailto:aqif_m_con@vnshealth.org" display="mailto:aqif_m_con@vnshealth.org" xr:uid="{2CBD8F2A-58CB-484A-B0F3-7780C48E5C39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testCases/TestCases.xlsx
+++ b/src/test/resources/testCases/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCareAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D22412E-9F4D-4836-B537-8F998F3596CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B45918-18A5-4067-929D-89A79E41A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,9 +297,6 @@
     <t>Click Enrollment Search Header</t>
   </si>
   <si>
-    <t>Verify Username Displayed is Syed</t>
-  </si>
-  <si>
     <t>TS004B</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>Select Member to Assign</t>
+  </si>
+  <si>
+    <t>Verify the Username Displayed is</t>
   </si>
 </sst>
 </file>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>77</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>71</v>
@@ -1008,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
@@ -1077,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>48</v>
@@ -1123,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
@@ -1215,7 +1215,7 @@
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>66</v>
@@ -1261,7 +1261,7 @@
         <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>42</v>
@@ -1284,7 +1284,7 @@
         <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>41</v>
@@ -1330,7 +1330,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>53</v>

--- a/src/test/resources/testCases/TestCases.xlsx
+++ b/src/test/resources/testCases/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCareAutomation\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B45918-18A5-4067-929D-89A79E41A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D3B184-DDF6-4E7E-9EFA-8007338EAA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Pass@word123</t>
   </si>
   <si>
-    <t>Click Login Button</t>
-  </si>
-  <si>
     <t>//button[@id='btnLogin']</t>
   </si>
   <si>
@@ -168,15 +165,9 @@
     <t>Dropdown</t>
   </si>
   <si>
-    <t>Click on Assigned Status Dropdown</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
-    <t>Click Search All</t>
-  </si>
-  <si>
     <t>ENG</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>//input[@id='btnAssign']</t>
   </si>
   <si>
-    <t>Verify the Primary Language is English.</t>
-  </si>
-  <si>
     <t>Aly</t>
   </si>
   <si>
@@ -222,18 +210,12 @@
     <t>TS019</t>
   </si>
   <si>
-    <t>Click on Assign Button</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
     <t>(//ul[@id='ddlCareStaff_listbox']/li)[1]</t>
   </si>
   <si>
-    <t>Click Manage Dropdown</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
@@ -282,36 +264,15 @@
     <t>TS004A</t>
   </si>
   <si>
-    <t>Capture Total Member Number</t>
-  </si>
-  <si>
-    <t>Verify Search Criteria Header is Displayed</t>
-  </si>
-  <si>
     <t>Parametierized Xpath</t>
   </si>
   <si>
-    <t>Check the Select All checkbox</t>
-  </si>
-  <si>
-    <t>Click Enrollment Search Header</t>
-  </si>
-  <si>
     <t>TS004B</t>
   </si>
   <si>
-    <t>Verify Page Title</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Select Assign Care Member Button</t>
-  </si>
-  <si>
-    <t>Select UnAssigned Option</t>
-  </si>
-  <si>
     <t>Type "MLTC" on Eligibility Level Value</t>
   </si>
   <si>
@@ -327,7 +288,46 @@
     <t>Select Member to Assign</t>
   </si>
   <si>
-    <t>Verify the Username Displayed is</t>
+    <t>Capture the Value of Total Member Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Search Criteria Header </t>
+  </si>
+  <si>
+    <t>Click on Search All</t>
+  </si>
+  <si>
+    <t>Click on Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Manage </t>
+  </si>
+  <si>
+    <t>Click on Assign Care Member</t>
+  </si>
+  <si>
+    <t>Click on Assigned Status</t>
+  </si>
+  <si>
+    <t>Click on Enrollment Search</t>
+  </si>
+  <si>
+    <t>Click on Select All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Assign </t>
+  </si>
+  <si>
+    <t>Verify the Username</t>
+  </si>
+  <si>
+    <t>Verify the Page Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select UnAssigned </t>
+  </si>
+  <si>
+    <t>Check if the Primary Language Value is English.</t>
   </si>
 </sst>
 </file>
@@ -399,45 +399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -472,53 +433,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF2F75B5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -529,6 +706,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62947AB4-51A5-40D9-B4A4-95F58A19A17F}" name="Table1" displayName="Table1" ref="A3:G26" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="8">
+  <autoFilter ref="A3:G26" xr:uid="{62947AB4-51A5-40D9-B4A4-95F58A19A17F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A562D6EA-646F-4C4A-92C3-17516A8629EF}" name="Test Steps ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AB3BF9B2-DE13-4E00-ADD9-2E3654AD98BC}" name="Test Step Description" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{167F78BE-8C2B-45C7-BA2D-6EA3795D0C4B}" name="ObjectType" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{17128352-6510-4449-8719-E14291BC2746}" name="Action" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{02B88A72-17F0-459C-A4BC-B83B79995DA7}" name="Locator Type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4C8E64E0-EC3E-430A-B8FC-7B17E133BE02}" name="Locator Value" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2E870920-7B6B-43C6-B001-8D9AAC76B255}" name="TestData" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -796,49 +989,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.6328125" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="40.1796875" customWidth="1"/>
+    <col min="7" max="7" width="34.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -850,7 +1043,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -870,16 +1063,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -893,16 +1086,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -912,141 +1105,141 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1054,19 +1247,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>21</v>
@@ -1077,19 +1270,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
@@ -1100,19 +1293,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -1123,22 +1316,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1146,19 +1339,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -1169,65 +1362,65 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -1235,45 +1428,45 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>21</v>
@@ -1281,45 +1474,45 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>21</v>
@@ -1327,47 +1520,47 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="E26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1378,5 +1571,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>